--- a/DataOverview/W4TRaC-SE-overview.xlsx
+++ b/DataOverview/W4TRaC-SE-overview.xlsx
@@ -1058,7 +1058,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -1082,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
